--- a/www.eia.gov/electricity/monthly/xls/table_1_15_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_15_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Table 1.15.B. Utility Scale Facility Net Generation from Biomass</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>6017</v>
+        <v>6578</v>
       </c>
       <c r="C7" s="10">
-        <v>6145</v>
+        <v>6747</v>
       </c>
       <c r="D7" s="11">
-        <v>-2.1000000000000001E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E7" s="10">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="F7" s="10">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="G7" s="10">
-        <v>4503</v>
+        <v>4900</v>
       </c>
       <c r="H7" s="10">
-        <v>4470</v>
+        <v>4926</v>
       </c>
       <c r="I7" s="10">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J7" s="10">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K7" s="10">
-        <v>904</v>
+        <v>1003</v>
       </c>
       <c r="L7" s="10">
-        <v>1063</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,10 +1430,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="C8" s="13">
-        <v>646</v>
+        <v>709</v>
       </c>
       <c r="D8" s="14">
         <v>0.122</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="H8" s="13">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>2343</v>
+        <v>2550</v>
       </c>
       <c r="C9" s="13">
-        <v>2632</v>
+        <v>2887</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.11</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>1364</v>
+        <v>1465</v>
       </c>
       <c r="H9" s="13">
-        <v>1494</v>
+        <v>1654</v>
       </c>
       <c r="I9" s="13">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J9" s="13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13">
-        <v>904</v>
+        <v>1003</v>
       </c>
       <c r="L9" s="13">
-        <v>1063</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>993</v>
+        <v>1085</v>
       </c>
       <c r="C10" s="13">
-        <v>967</v>
+        <v>1066</v>
       </c>
       <c r="D10" s="14">
-        <v>2.7E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>992</v>
+        <v>1084</v>
       </c>
       <c r="H10" s="13">
-        <v>966</v>
+        <v>1066</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="13">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="K10" s="13">
         <v>0</v>
@@ -1544,31 +1544,31 @@
         <v>21</v>
       </c>
       <c r="B11" s="13">
-        <v>1389</v>
+        <v>1527</v>
       </c>
       <c r="C11" s="13">
-        <v>1346</v>
+        <v>1473</v>
       </c>
       <c r="D11" s="14">
-        <v>3.2000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E11" s="13">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F11" s="13">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="G11" s="13">
-        <v>1110</v>
+        <v>1217</v>
       </c>
       <c r="H11" s="13">
-        <v>1050</v>
+        <v>1151</v>
       </c>
       <c r="I11" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11" s="13">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C12" s="13">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D12" s="14">
-        <v>-2.9000000000000001E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H12" s="13">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1620,25 +1620,25 @@
         <v>23</v>
       </c>
       <c r="B13" s="13">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="C13" s="13">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="D13" s="14">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F13" s="13">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G13" s="13">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H13" s="13">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>20</v>
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>4683</v>
+        <v>5144</v>
       </c>
       <c r="C14" s="10">
-        <v>4603</v>
+        <v>5091</v>
       </c>
       <c r="D14" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>3669</v>
+        <v>4038</v>
       </c>
       <c r="H14" s="10">
-        <v>3533</v>
+        <v>3904</v>
       </c>
       <c r="I14" s="10">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="J14" s="10">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="K14" s="10">
-        <v>610</v>
+        <v>668</v>
       </c>
       <c r="L14" s="10">
-        <v>625</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="C15" s="13">
-        <v>775</v>
+        <v>857</v>
       </c>
       <c r="D15" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>660</v>
+        <v>725</v>
       </c>
       <c r="H15" s="13">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="I15" s="13">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J15" s="13">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" s="13">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>1893</v>
+        <v>2085</v>
       </c>
       <c r="C16" s="13">
-        <v>1845</v>
+        <v>2037</v>
       </c>
       <c r="D16" s="14">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,22 +1749,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>1550</v>
+        <v>1709</v>
       </c>
       <c r="H16" s="13">
-        <v>1497</v>
+        <v>1652</v>
       </c>
       <c r="I16" s="13">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J16" s="13">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K16" s="13">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L16" s="13">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>1987</v>
+        <v>2179</v>
       </c>
       <c r="C17" s="13">
-        <v>1982</v>
+        <v>2197</v>
       </c>
       <c r="D17" s="14">
-        <v>2E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,22 +1787,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>1459</v>
+        <v>1604</v>
       </c>
       <c r="H17" s="13">
-        <v>1403</v>
+        <v>1551</v>
       </c>
       <c r="I17" s="13">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J17" s="13">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K17" s="13">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="L17" s="13">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>4735</v>
+        <v>5189</v>
       </c>
       <c r="C18" s="10">
-        <v>4897</v>
+        <v>5368</v>
       </c>
       <c r="D18" s="11">
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="F18" s="10">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G18" s="10">
-        <v>2742</v>
+        <v>2996</v>
       </c>
       <c r="H18" s="10">
-        <v>2791</v>
+        <v>3045</v>
       </c>
       <c r="I18" s="10">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" s="10">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K18" s="10">
-        <v>1287</v>
+        <v>1409</v>
       </c>
       <c r="L18" s="10">
-        <v>1373</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,25 +1848,25 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="C19" s="13">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="D19" s="14">
-        <v>0.111</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E19" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" s="13">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="H19" s="13">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -1886,37 +1886,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C20" s="13">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="D20" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E20" s="13">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="F20" s="13">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G20" s="13">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H20" s="13">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I20" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K20" s="13">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L20" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,13 +1924,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>2081</v>
+        <v>2276</v>
       </c>
       <c r="C21" s="13">
-        <v>2088</v>
+        <v>2286</v>
       </c>
       <c r="D21" s="14">
-        <v>-3.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>20</v>
@@ -1939,22 +1939,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>1402</v>
+        <v>1527</v>
       </c>
       <c r="H21" s="13">
-        <v>1356</v>
+        <v>1481</v>
       </c>
       <c r="I21" s="13">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J21" s="13">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K21" s="13">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="L21" s="13">
-        <v>563</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="C22" s="13">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="D22" s="14">
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="E22" s="13">
         <v>4</v>
@@ -1977,22 +1977,22 @@
         <v>4</v>
       </c>
       <c r="G22" s="13">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="H22" s="13">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="I22" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="13">
         <v>7</v>
       </c>
       <c r="K22" s="13">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L22" s="13">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,37 +2000,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>1168</v>
+        <v>1285</v>
       </c>
       <c r="C23" s="13">
-        <v>1332</v>
+        <v>1450</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.123</v>
+        <v>-0.114</v>
       </c>
       <c r="E23" s="13">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="F23" s="13">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G23" s="13">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="H23" s="13">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="I23" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J23" s="13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K23" s="13">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="L23" s="13">
-        <v>485</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>1988</v>
+        <v>2174</v>
       </c>
       <c r="C24" s="10">
-        <v>1910</v>
+        <v>2127</v>
       </c>
       <c r="D24" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E24" s="10">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="F24" s="10">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="G24" s="10">
-        <v>916</v>
+        <v>1002</v>
       </c>
       <c r="H24" s="10">
-        <v>883</v>
+        <v>985</v>
       </c>
       <c r="I24" s="10">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J24" s="10">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K24" s="10">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="L24" s="10">
-        <v>521</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,37 +2076,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C25" s="13">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D25" s="14">
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E25" s="13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F25" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G25" s="13">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H25" s="13">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I25" s="13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J25" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K25" s="13">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L25" s="13">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,13 +2114,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="13">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26" s="14">
-        <v>0.19400000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H26" s="13">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I26" s="13">
         <v>0</v>
@@ -2152,37 +2152,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>1496</v>
+        <v>1643</v>
       </c>
       <c r="C27" s="13">
-        <v>1465</v>
+        <v>1640</v>
       </c>
       <c r="D27" s="14">
-        <v>2.1000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E27" s="13">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="F27" s="13">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G27" s="13">
-        <v>710</v>
+        <v>776</v>
       </c>
       <c r="H27" s="13">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="I27" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J27" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K27" s="13">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="L27" s="13">
-        <v>460</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,25 +2190,25 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C28" s="13">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D28" s="14">
-        <v>9.5000000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="E28" s="13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F28" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H28" s="13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" s="13">
         <v>43</v>
@@ -2216,8 +2216,8 @@
       <c r="J28" s="13">
         <v>27</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>20</v>
+      <c r="K28" s="13">
+        <v>3</v>
       </c>
       <c r="L28" s="13">
         <v>2</v>
@@ -2228,19 +2228,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D29" s="14">
-        <v>0.51900000000000002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E29" s="13">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F29" s="13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="14">
-        <v>2.6389999999999998</v>
+        <v>2.302</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>15567</v>
+        <v>17058</v>
       </c>
       <c r="C32" s="10">
-        <v>15956</v>
+        <v>17576</v>
       </c>
       <c r="D32" s="11">
-        <v>-2.4E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>1490</v>
+        <v>1574</v>
       </c>
       <c r="F32" s="10">
-        <v>1468</v>
+        <v>1603</v>
       </c>
       <c r="G32" s="10">
-        <v>5180</v>
+        <v>5679</v>
       </c>
       <c r="H32" s="10">
-        <v>5369</v>
+        <v>5951</v>
       </c>
       <c r="I32" s="10">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="J32" s="10">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="K32" s="10">
-        <v>8601</v>
+        <v>9480</v>
       </c>
       <c r="L32" s="10">
-        <v>8825</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C33" s="13">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D33" s="14">
-        <v>0</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="13">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H33" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D34" s="14">
         <v>-1</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" s="13">
         <v>0</v>
@@ -2456,37 +2456,37 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>3750</v>
+        <v>4135</v>
       </c>
       <c r="C35" s="13">
-        <v>4097</v>
+        <v>4496</v>
       </c>
       <c r="D35" s="14">
-        <v>-8.5000000000000006E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="E35" s="13">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F35" s="13">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G35" s="13">
-        <v>1991</v>
+        <v>2191</v>
       </c>
       <c r="H35" s="13">
-        <v>2227</v>
+        <v>2445</v>
       </c>
       <c r="I35" s="13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J35" s="13">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K35" s="13">
-        <v>1646</v>
+        <v>1821</v>
       </c>
       <c r="L35" s="13">
-        <v>1745</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>3829</v>
+        <v>4229</v>
       </c>
       <c r="C36" s="13">
-        <v>3895</v>
+        <v>4295</v>
       </c>
       <c r="D36" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="H36" s="13">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="I36" s="13">
         <v>5</v>
@@ -2521,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="K36" s="13">
-        <v>3245</v>
+        <v>3586</v>
       </c>
       <c r="L36" s="13">
-        <v>3342</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="C37" s="13">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="D37" s="14">
-        <v>5.6000000000000001E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,22 +2547,22 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="H37" s="13">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="I37" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="13">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L37" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,13 +2570,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>2011</v>
+        <v>2199</v>
       </c>
       <c r="C38" s="13">
-        <v>2045</v>
+        <v>2311</v>
       </c>
       <c r="D38" s="14">
-        <v>-1.7000000000000001E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -2585,22 +2585,22 @@
         <v>0</v>
       </c>
       <c r="G38" s="13">
-        <v>955</v>
+        <v>1028</v>
       </c>
       <c r="H38" s="13">
-        <v>897</v>
+        <v>1035</v>
       </c>
       <c r="I38" s="13">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J38" s="13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K38" s="13">
-        <v>1000</v>
+        <v>1110</v>
       </c>
       <c r="L38" s="13">
-        <v>1099</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,25 +2608,25 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>1998</v>
+        <v>2182</v>
       </c>
       <c r="C39" s="13">
-        <v>1927</v>
+        <v>2097</v>
       </c>
       <c r="D39" s="14">
-        <v>3.6999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E39" s="13">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="F39" s="13">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G39" s="13">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="H39" s="13">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="I39" s="13">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>1316</v>
+        <v>1431</v>
       </c>
       <c r="L39" s="13">
-        <v>1223</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,37 +2646,37 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>3461</v>
+        <v>3738</v>
       </c>
       <c r="C40" s="13">
-        <v>3476</v>
+        <v>3807</v>
       </c>
       <c r="D40" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E40" s="13">
-        <v>1077</v>
+        <v>1115</v>
       </c>
       <c r="F40" s="13">
-        <v>1016</v>
+        <v>1102</v>
       </c>
       <c r="G40" s="13">
-        <v>916</v>
+        <v>1011</v>
       </c>
       <c r="H40" s="13">
-        <v>953</v>
+        <v>1039</v>
       </c>
       <c r="I40" s="13">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J40" s="13">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K40" s="13">
-        <v>1292</v>
+        <v>1418</v>
       </c>
       <c r="L40" s="13">
-        <v>1318</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,13 +2684,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H41" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2722,25 +2722,25 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>5158</v>
+        <v>5681</v>
       </c>
       <c r="C42" s="10">
-        <v>5175</v>
+        <v>5711</v>
       </c>
       <c r="D42" s="11">
-        <v>-3.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E42" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F42" s="10">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G42" s="10">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="H42" s="10">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>4777</v>
+        <v>5264</v>
       </c>
       <c r="L42" s="10">
-        <v>4818</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,13 +2760,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>2705</v>
+        <v>2982</v>
       </c>
       <c r="C43" s="13">
-        <v>2727</v>
+        <v>2999</v>
       </c>
       <c r="D43" s="14">
-        <v>-8.0000000000000002E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H43" s="13">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>2478</v>
+        <v>2734</v>
       </c>
       <c r="L43" s="13">
-        <v>2518</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,25 +2798,25 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="C44" s="13">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="D44" s="14">
-        <v>0.04</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F44" s="13">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G44" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H44" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L44" s="13">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,13 +2836,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="13">
-        <v>1248</v>
+        <v>1370</v>
       </c>
       <c r="C45" s="13">
-        <v>1256</v>
+        <v>1389</v>
       </c>
       <c r="D45" s="14">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0.05</v>
       </c>
       <c r="G45" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="13">
-        <v>1237</v>
+        <v>1358</v>
       </c>
       <c r="L45" s="13">
-        <v>1246</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2874,13 +2874,13 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>830</v>
+        <v>914</v>
       </c>
       <c r="C46" s="13">
-        <v>833</v>
+        <v>916</v>
       </c>
       <c r="D46" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H46" s="13">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="L46" s="13">
-        <v>769</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>5097</v>
+        <v>5615</v>
       </c>
       <c r="C47" s="10">
-        <v>4899</v>
+        <v>5389</v>
       </c>
       <c r="D47" s="11">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E47" s="10">
         <v>19</v>
@@ -2927,22 +2927,22 @@
         <v>125</v>
       </c>
       <c r="G47" s="10">
-        <v>815</v>
+        <v>899</v>
       </c>
       <c r="H47" s="10">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="I47" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J47" s="10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K47" s="10">
-        <v>4231</v>
+        <v>4661</v>
       </c>
       <c r="L47" s="10">
-        <v>3996</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,10 +2950,10 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>1150</v>
+        <v>1272</v>
       </c>
       <c r="C48" s="13">
-        <v>1198</v>
+        <v>1325</v>
       </c>
       <c r="D48" s="14">
         <v>-0.04</v>
@@ -2965,22 +2965,22 @@
         <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H48" s="13">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I48" s="13">
         <v>3</v>
       </c>
       <c r="J48" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" s="13">
-        <v>1062</v>
+        <v>1176</v>
       </c>
       <c r="L48" s="13">
-        <v>1121</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>2230</v>
+        <v>2460</v>
       </c>
       <c r="C49" s="13">
-        <v>2239</v>
+        <v>2464</v>
       </c>
       <c r="D49" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" s="13">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>2151</v>
+        <v>2374</v>
       </c>
       <c r="L49" s="13">
-        <v>2164</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,13 +3026,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C50" s="13">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D50" s="14">
-        <v>-5.6000000000000001E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E50" s="13">
         <v>0</v>
@@ -3041,11 +3041,11 @@
         <v>0</v>
       </c>
       <c r="G50" s="13">
+        <v>12</v>
+      </c>
+      <c r="H50" s="13">
         <v>11</v>
       </c>
-      <c r="H50" s="13">
-        <v>10</v>
-      </c>
       <c r="I50" s="13">
         <v>0</v>
       </c>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L50" s="13">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>1458</v>
+        <v>1598</v>
       </c>
       <c r="C51" s="13">
-        <v>1187</v>
+        <v>1295</v>
       </c>
       <c r="D51" s="14">
-        <v>0.22800000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E51" s="13">
         <v>19</v>
@@ -3079,22 +3079,22 @@
         <v>125</v>
       </c>
       <c r="G51" s="13">
-        <v>641</v>
+        <v>709</v>
       </c>
       <c r="H51" s="13">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="I51" s="13">
+        <v>33</v>
+      </c>
+      <c r="J51" s="13">
         <v>30</v>
       </c>
-      <c r="J51" s="13">
-        <v>27</v>
-      </c>
       <c r="K51" s="13">
-        <v>768</v>
+        <v>837</v>
       </c>
       <c r="L51" s="13">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,37 +3102,37 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>865</v>
+        <v>951</v>
       </c>
       <c r="C52" s="10">
-        <v>875</v>
+        <v>966</v>
       </c>
       <c r="D52" s="11">
-        <v>-1.2E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="10">
-        <v>520</v>
+        <v>571</v>
       </c>
       <c r="H52" s="10">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="I52" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J52" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K52" s="10">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L52" s="10">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,13 +3140,13 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C53" s="13">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D53" s="14">
-        <v>-3.5000000000000003E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E53" s="13">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>7</v>
       </c>
       <c r="G53" s="13">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H53" s="13">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -3178,13 +3178,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C54" s="13">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D54" s="14">
-        <v>0.161</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E54" s="13">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="13">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H54" s="13">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
@@ -3216,37 +3216,37 @@
         <v>66</v>
       </c>
       <c r="B55" s="13">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="C55" s="13">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="D55" s="14">
-        <v>-2.7E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="E55" s="13">
+        <v>12</v>
+      </c>
+      <c r="F55" s="13">
         <v>11</v>
       </c>
-      <c r="F55" s="13">
-        <v>10</v>
-      </c>
       <c r="G55" s="13">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H55" s="13">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="I55" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K55" s="13">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L55" s="13">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="K56" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L56" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3292,13 +3292,13 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C57" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D57" s="14">
-        <v>1.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H57" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,25 +3330,25 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="13">
+        <v>18</v>
+      </c>
+      <c r="D58" s="14">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
         <v>16</v>
       </c>
-      <c r="D58" s="14">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
-        <v>0</v>
-      </c>
-      <c r="G58" s="13">
-        <v>15</v>
-      </c>
       <c r="H58" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C59" s="13">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D59" s="14">
-        <v>-1E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E59" s="13">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H59" s="13">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I59" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J59" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" s="13">
         <v>0</v>
@@ -3444,37 +3444,37 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>7523</v>
+        <v>8247</v>
       </c>
       <c r="C61" s="10">
-        <v>7975</v>
+        <v>8750</v>
       </c>
       <c r="D61" s="11">
         <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="F61" s="10">
-        <v>599</v>
+        <v>659</v>
       </c>
       <c r="G61" s="10">
-        <v>4199</v>
+        <v>4580</v>
       </c>
       <c r="H61" s="10">
-        <v>4446</v>
+        <v>4880</v>
       </c>
       <c r="I61" s="10">
-        <v>730</v>
+        <v>797</v>
       </c>
       <c r="J61" s="10">
-        <v>818</v>
+        <v>892</v>
       </c>
       <c r="K61" s="10">
-        <v>1992</v>
+        <v>2199</v>
       </c>
       <c r="L61" s="10">
-        <v>2112</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,37 +3482,37 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>5074</v>
+        <v>5547</v>
       </c>
       <c r="C62" s="13">
-        <v>5398</v>
+        <v>5901</v>
       </c>
       <c r="D62" s="14">
         <v>-0.06</v>
       </c>
       <c r="E62" s="13">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F62" s="13">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G62" s="13">
-        <v>3762</v>
+        <v>4103</v>
       </c>
       <c r="H62" s="13">
-        <v>4022</v>
+        <v>4408</v>
       </c>
       <c r="I62" s="13">
-        <v>701</v>
+        <v>766</v>
       </c>
       <c r="J62" s="13">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="K62" s="13">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="L62" s="13">
-        <v>436</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,37 +3520,37 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>784</v>
+        <v>864</v>
       </c>
       <c r="C63" s="13">
-        <v>920</v>
+        <v>1020</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.14799999999999999</v>
+        <v>-0.152</v>
       </c>
       <c r="E63" s="13">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F63" s="13">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G63" s="13">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="H63" s="13">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="I63" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J63" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K63" s="13">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="L63" s="13">
-        <v>521</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,37 +3558,37 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>1666</v>
+        <v>1835</v>
       </c>
       <c r="C64" s="13">
-        <v>1657</v>
+        <v>1829</v>
       </c>
       <c r="D64" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E64" s="13">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="F64" s="13">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G64" s="13">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H64" s="13">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I64" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J64" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K64" s="13">
-        <v>1176</v>
+        <v>1295</v>
       </c>
       <c r="L64" s="13">
-        <v>1156</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,19 +3596,19 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C65" s="10">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="D65" s="11">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E65" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F65" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="10">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J65" s="10">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K65" s="10">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L65" s="10">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,31 +3634,31 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C66" s="13">
+        <v>51</v>
+      </c>
+      <c r="D66" s="14">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
+        <v>42</v>
+      </c>
+      <c r="J66" s="13">
         <v>47</v>
-      </c>
-      <c r="D66" s="14">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
-        <v>0</v>
-      </c>
-      <c r="G66" s="13">
-        <v>0</v>
-      </c>
-      <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13">
-        <v>39</v>
-      </c>
-      <c r="J66" s="13">
-        <v>43</v>
       </c>
       <c r="K66" s="13">
         <v>5</v>
@@ -3672,19 +3672,19 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="C67" s="13">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="D67" s="14">
-        <v>-6.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E67" s="13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F67" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G67" s="13">
         <v>0</v>
@@ -3693,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="13">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J67" s="13">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K67" s="13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L67" s="13">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>51948</v>
+        <v>56982</v>
       </c>
       <c r="C68" s="10">
-        <v>52755</v>
+        <v>58075</v>
       </c>
       <c r="D68" s="11">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>3716</v>
+        <v>4038</v>
       </c>
       <c r="F68" s="10">
-        <v>3752</v>
+        <v>4116</v>
       </c>
       <c r="G68" s="10">
-        <v>22851</v>
+        <v>25003</v>
       </c>
       <c r="H68" s="10">
-        <v>23038</v>
+        <v>25396</v>
       </c>
       <c r="I68" s="10">
-        <v>2073</v>
+        <v>2258</v>
       </c>
       <c r="J68" s="10">
-        <v>2232</v>
+        <v>2455</v>
       </c>
       <c r="K68" s="10">
-        <v>23309</v>
+        <v>25682</v>
       </c>
       <c r="L68" s="10">
-        <v>23734</v>
+        <v>26108</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
